--- a/11-CollaborationList/STFC.xlsx
+++ b/11-CollaborationList/STFC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0001A7B-1007-6740-A8BB-A328CD0E08C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64946A0C-1563-C84F-864F-E69EE068B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Title</t>
   </si>
@@ -145,9 +145,6 @@
     <t>STFC-TD-DL</t>
   </si>
   <si>
-    <t>STFC Daresbury Laboratory, Daresbury, Cheshire, WA4 4AD, UK</t>
-  </si>
-  <si>
     <t>Ms</t>
   </si>
   <si>
@@ -257,6 +254,12 @@
   </si>
   <si>
     <t>H.Ahmed</t>
+  </si>
+  <si>
+    <t>Accelerator Science and Technology Centre, STFC Daresbury Laboratory, Daresbury, Cheshire, WA4 4AD, UK</t>
+  </si>
+  <si>
+    <t>Technology Department, STFC Daresbury Laboratory, Daresbury, Cheshire, WA4 4AD, UK</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1326,7 +1329,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1334,28 +1337,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1363,28 +1366,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1398,25 +1401,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1427,25 +1430,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1453,28 +1456,28 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1482,28 +1485,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
       <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
         <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
       </c>
       <c r="I11">
         <v>0</v>

--- a/11-CollaborationList/STFC.xlsx
+++ b/11-CollaborationList/STFC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64946A0C-1563-C84F-864F-E69EE068B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2393DB1-B9A0-014B-A45E-94BD491C1FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
@@ -88,9 +88,6 @@
     <t>STFC-ISIS</t>
   </si>
   <si>
-    <t>ISIS Neutron and Muon Source, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Christopher </t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>STFC-PPD</t>
   </si>
   <si>
-    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot OX11 0QX, UK</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
@@ -260,13 +254,52 @@
   </si>
   <si>
     <t>Technology Department, STFC Daresbury Laboratory, Daresbury, Cheshire, WA4 4AD, UK</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Posthuma de Boer</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>david.posthuma-de-boer@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>D.Posthuma de Boer</t>
+  </si>
+  <si>
+    <t>Shinji</t>
+  </si>
+  <si>
+    <t>Machida</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t>s.machida@rl.ac.uk</t>
+  </si>
+  <si>
+    <t>S.Machida</t>
+  </si>
+  <si>
+    <t>ISIS Neutron and Muon Source, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Particle Physics Department, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +430,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,7 +740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -742,11 +783,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -780,6 +823,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -804,8 +848,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O11" totalsRowShown="0">
-  <autoFilter ref="A1:O11" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0">
+  <autoFilter ref="A1:O13" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{03F42022-D94F-B348-B522-BCF83D34B184}" name="Title"/>
     <tableColumn id="2" xr3:uid="{8F27C502-ECBA-C148-9D3A-52FF29D0F2B3}" name="Name"/>
@@ -1144,17 +1188,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A6050-7444-6342-A209-EE6F7E69E724}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
@@ -1239,7 +1283,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1250,25 +1294,25 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1279,57 +1323,57 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1337,28 +1381,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1366,34 +1410,34 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1401,25 +1445,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1430,25 +1474,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1456,28 +1500,28 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1485,37 +1529,99 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{AC4E2BC6-54C6-804B-8AC4-11BFC32D3D08}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{8BC8A6A2-F5BD-2547-BB8C-90DAB3A3D56D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/STFC.xlsx
+++ b/11-CollaborationList/STFC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2393DB1-B9A0-014B-A45E-94BD491C1FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3B8EB-6141-654F-AAA6-393337D743BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{72476294-2EED-D047-B1FA-979B559719EC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>Title</t>
   </si>
@@ -293,6 +293,63 @@
   </si>
   <si>
     <t>Central Laser Facility, STFC Rutherford Appleton Laboratory, Harwell Oxford, Didcot, OX11 0QX, UK</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Pugh</t>
+  </si>
+  <si>
+    <t>chloe.pugh@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>C. Pugh</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Goulden</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>andy.goulden@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>A. Goulden</t>
+  </si>
+  <si>
+    <t>Clive</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>clive.hill@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>C. Hill</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>mark.johnson@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>M. Johnson</t>
   </si>
 </sst>
 </file>
@@ -848,8 +905,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O13" totalsRowShown="0">
-  <autoFilter ref="A1:O13" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}" name="Table1" displayName="Table1" ref="A1:O17" totalsRowShown="0">
+  <autoFilter ref="A1:O17" xr:uid="{4F4A9D40-3F8E-7140-AF8B-A230CADED56C}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{03F42022-D94F-B348-B522-BCF83D34B184}" name="Title"/>
     <tableColumn id="2" xr3:uid="{8F27C502-ECBA-C148-9D3A-52FF29D0F2B3}" name="Name"/>
@@ -1188,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A6050-7444-6342-A209-EE6F7E69E724}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,54 +1531,57 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1529,28 +1589,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1558,28 +1618,28 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1587,41 +1647,158 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H17" t="s">
         <v>88</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{AC4E2BC6-54C6-804B-8AC4-11BFC32D3D08}"/>
-    <hyperlink ref="E13" r:id="rId2" xr:uid="{8BC8A6A2-F5BD-2547-BB8C-90DAB3A3D56D}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{AC4E2BC6-54C6-804B-8AC4-11BFC32D3D08}"/>
+    <hyperlink ref="E17" r:id="rId2" xr:uid="{8BC8A6A2-F5BD-2547-BB8C-90DAB3A3D56D}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{919352C9-DB7D-254B-BC54-8C8A6F4AB6D7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>